--- a/Standard FDM test/BenchO_offline_ver20190902.xlsx
+++ b/Standard FDM test/BenchO_offline_ver20190902.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18588" windowHeight="9347"/>
+    <workbookView windowWidth="18588" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -20,105 +20,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="292">
+  <si>
+    <t>An Universal 3D printer test standard</t>
+  </si>
+  <si>
+    <t>Part1: Basic Precision</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>Large Scale</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Value(mm)</t>
+  </si>
+  <si>
+    <t>Average(mm)</t>
+  </si>
+  <si>
+    <t>This part will reflect the relative precision and the absolute accuracy of your printer.The International Tolerance table reference ISO 286 has been applied here.</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>For this section , all data should be enter in exact order.</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>XY relative precision</t>
+  </si>
+  <si>
+    <t>XY accuracy</t>
+  </si>
+  <si>
+    <t>Tolerance Grade</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Small Scale</t>
+  </si>
+  <si>
+    <t>This part will reflect the absolute accuracy of your printer.The International Tolerance table reference ISO 286 has been applied here.</t>
+  </si>
+  <si>
+    <t>In this section no specific data order is required.You should take data  from different locations on model and fill all the blank.</t>
+  </si>
+  <si>
+    <t>Z axis</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>To see more details about grade, check Misc tab</t>
+  </si>
+  <si>
+    <t>Small Scale accuracy</t>
+  </si>
+  <si>
+    <t>Z axis accuracy</t>
+  </si>
+  <si>
+    <t>End of the section, please proceed to the next tab</t>
+  </si>
   <si>
     <t>BenchoO</t>
-  </si>
-  <si>
-    <t>An Universal 3D printer test standard</t>
-  </si>
-  <si>
-    <t>Part1: Basic Precision</t>
-  </si>
-  <si>
-    <t>Section 1</t>
-  </si>
-  <si>
-    <t>Large Scale</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Value(mm)</t>
-  </si>
-  <si>
-    <t>Average(mm)</t>
-  </si>
-  <si>
-    <t>This part will reflect the relative precision and the absolute accuracy of your printer.The International Tolerance table reference ISO 286 has been applied here.</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>For this section , all data should be enter in exact order.</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>XY relative precision</t>
-  </si>
-  <si>
-    <t>XY accuracy</t>
-  </si>
-  <si>
-    <t>Tolerance Grade</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Small Scale</t>
-  </si>
-  <si>
-    <t>This part will reflect the absolute accuracy of your printer.The International Tolerance table reference ISO 286 has been applied here.</t>
-  </si>
-  <si>
-    <t>In this section no specific data order is required.You should take data  from different locations on model and fill all the blank.</t>
-  </si>
-  <si>
-    <t>Z axis</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>To see more details about grade, check Misc tab</t>
-  </si>
-  <si>
-    <t>Small Scale accuracy</t>
-  </si>
-  <si>
-    <t>Z axis accuracy</t>
-  </si>
-  <si>
-    <t>End of the section, please proceed to the next tab</t>
   </si>
   <si>
     <t>Part2: Engineering</t>
@@ -448,9 +448,6 @@
     <t>Bridge to bottom Distance(mm)</t>
   </si>
   <si>
-    <t>pic of ringing</t>
-  </si>
-  <si>
     <t>Stringing</t>
   </si>
   <si>
@@ -1003,12 +1000,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1073,16 +1070,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,7 +1101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,7 +1115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,7 +1130,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,7 +1169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,7 +1200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,15 +1208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,13 +1265,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,43 +1313,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,37 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,43 +1367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,7 +1397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,6 +1428,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,13 +1658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1677,6 +1678,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1692,21 +1708,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1729,21 +1730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1758,6 +1744,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1766,10 +1763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1778,137 +1775,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1933,13 +1930,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1948,7 +1945,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,7 +1972,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1999,7 +1996,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2008,90 +2005,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2113,7 +2110,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2149,19 +2146,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2170,6 +2167,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2179,6 +2179,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2188,6 +2191,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2197,6 +2203,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2212,10 +2233,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2239,10 +2260,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,112 +2278,112 @@
     <xf numFmtId="10" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2594,10 +2615,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -2895,16 +2916,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.914012830433435</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,10 +3404,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.955555555555555</c:v>
+                  <c:v>0.681111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.598</c:v>
+                  <c:v>0.602</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8224</c:v>
@@ -6861,6 +6882,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="C:\Users\Asus\Desktop\BenchoProfile\Pic\ENG5.pngENG5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6047740" y="19487515"/>
+          <a:ext cx="3961130" cy="2663825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6869,15 +6932,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
+      <xdr:colOff>404495</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>455930</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>227965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6895,8 +6958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5890895" y="2077720"/>
-          <a:ext cx="4189095" cy="2291080"/>
+          <a:off x="6203315" y="2070100"/>
+          <a:ext cx="3137535" cy="1713865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6911,15 +6974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>603885</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>207645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6937,13 +7000,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5868035" y="4638040"/>
+          <a:off x="5837555" y="3898900"/>
           <a:ext cx="4237990" cy="1896745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="76200">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6240780" y="6382385"/>
+          <a:ext cx="3528060" cy="2459355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -7397,8 +7502,8 @@
   <sheetPr/>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:H28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7414,9 +7519,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7477,7 +7580,7 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7494,7 +7597,7 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
       <c r="A6" s="64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7526,7 +7629,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7543,7 +7646,7 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7559,21 +7662,21 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:13">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="C10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="D10" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="123"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="131"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -7582,20 +7685,20 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:13">
-      <c r="A11" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="143">
-        <v>100</v>
+      <c r="A11" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="152">
+        <v>99.71</v>
       </c>
       <c r="C11" s="41">
         <f>IFERROR(AVERAGE(B11:B18),0)</f>
-        <v>100</v>
-      </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="123"/>
+        <v>99.54625</v>
+      </c>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="131"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -7604,17 +7707,17 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:13">
-      <c r="A12" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="143">
-        <v>100</v>
-      </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="123"/>
+      <c r="A12" s="148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="152">
+        <v>99.51</v>
+      </c>
+      <c r="C12" s="153"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -7623,17 +7726,17 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:13">
-      <c r="A13" s="139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="143">
-        <v>100</v>
-      </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="123"/>
+      <c r="A13" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="152">
+        <v>99.52</v>
+      </c>
+      <c r="C13" s="153"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -7642,15 +7745,15 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:13">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="152">
+        <v>99.59</v>
+      </c>
+      <c r="C14" s="153"/>
+      <c r="D14" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" s="143">
-        <v>100</v>
-      </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -7663,13 +7766,13 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:13">
-      <c r="A15" s="139" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="143">
-        <v>100</v>
-      </c>
-      <c r="C15" s="144"/>
+      <c r="A15" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="152">
+        <v>99.61</v>
+      </c>
+      <c r="C15" s="153"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -7682,13 +7785,13 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:13">
-      <c r="A16" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="143">
-        <v>100</v>
-      </c>
-      <c r="C16" s="144"/>
+      <c r="A16" s="148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="152">
+        <v>99.47</v>
+      </c>
+      <c r="C16" s="153"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -7701,13 +7804,13 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:13">
-      <c r="A17" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="143">
-        <v>100</v>
-      </c>
-      <c r="C17" s="144"/>
+      <c r="A17" s="148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="152">
+        <v>99.42</v>
+      </c>
+      <c r="C17" s="153"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -7720,13 +7823,13 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:13">
-      <c r="A18" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="143">
-        <v>100</v>
-      </c>
-      <c r="C18" s="145"/>
+      <c r="A18" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="152">
+        <v>99.54</v>
+      </c>
+      <c r="C18" s="154"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -7742,11 +7845,11 @@
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="139" t="s">
+      <c r="D19" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="148" t="s">
         <v>18</v>
-      </c>
-      <c r="E19" s="139" t="s">
-        <v>19</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>"Hint:"&amp;Process!D12</f>
@@ -7764,12 +7867,12 @@
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="139" t="s">
-        <v>20</v>
+      <c r="D20" s="148" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="38" t="str">
         <f>ROUND(Process!D2*'Score Weight'!L8,2)&amp;" out of 6"</f>
-        <v>6 out of 6</v>
+        <v>5.48 out of 6</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -7784,12 +7887,12 @@
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="139" t="s">
-        <v>21</v>
+      <c r="D21" s="148" t="s">
+        <v>20</v>
       </c>
       <c r="E21" s="38" t="str">
         <f>ROUND(Process!D4*'Score Weight'!L9,2)&amp;" out of 4"</f>
-        <v>4 out of 4</v>
+        <v>2 out of 4</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -7804,12 +7907,12 @@
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="139" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="146" t="str">
+      <c r="D22" s="148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="155" t="str">
         <f>Process!D6</f>
-        <v>Perfect</v>
+        <v>IT12</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -7822,7 +7925,7 @@
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7839,15 +7942,15 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:13">
       <c r="A24" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -7856,21 +7959,21 @@
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:13">
       <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="148"/>
+      <c r="H25" s="147"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -7881,18 +7984,18 @@
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="143">
-        <v>10.02</v>
+      <c r="B26" s="152">
+        <v>9.91</v>
       </c>
       <c r="C26" s="41">
         <f>IFERROR(AVERAGE(B26:B35),0)</f>
-        <v>9.979</v>
+        <v>9.89</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="148"/>
+      <c r="H26" s="147"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -7903,15 +8006,15 @@
       <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="143">
-        <v>9.98</v>
-      </c>
-      <c r="C27" s="144"/>
+      <c r="B27" s="152">
+        <v>9.9</v>
+      </c>
+      <c r="C27" s="153"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="148"/>
+      <c r="H27" s="147"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -7922,15 +8025,15 @@
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="143">
-        <v>9.93</v>
-      </c>
-      <c r="C28" s="144"/>
+      <c r="B28" s="152">
+        <v>9.86</v>
+      </c>
+      <c r="C28" s="153"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="148"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -7941,17 +8044,17 @@
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="143">
-        <v>9.92</v>
-      </c>
-      <c r="C29" s="144"/>
+      <c r="B29" s="152">
+        <v>9.86</v>
+      </c>
+      <c r="C29" s="153"/>
       <c r="D29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="148"/>
+      <c r="H29" s="147"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -7962,15 +8065,15 @@
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="143">
-        <v>9.95</v>
-      </c>
-      <c r="C30" s="144"/>
+      <c r="B30" s="152">
+        <v>9.89</v>
+      </c>
+      <c r="C30" s="153"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="148"/>
+      <c r="H30" s="147"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -7981,15 +8084,15 @@
       <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="143">
-        <v>9.95</v>
-      </c>
-      <c r="C31" s="144"/>
+      <c r="B31" s="152">
+        <v>9.87</v>
+      </c>
+      <c r="C31" s="153"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="148"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -8000,15 +8103,15 @@
       <c r="A32" s="3">
         <v>7</v>
       </c>
-      <c r="B32" s="143">
-        <v>9.96</v>
-      </c>
-      <c r="C32" s="144"/>
+      <c r="B32" s="152">
+        <v>9.93</v>
+      </c>
+      <c r="C32" s="153"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="148"/>
+      <c r="H32" s="147"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -8019,15 +8122,15 @@
       <c r="A33" s="3">
         <v>8</v>
       </c>
-      <c r="B33" s="143">
-        <v>10</v>
-      </c>
-      <c r="C33" s="144"/>
+      <c r="B33" s="152">
+        <v>9.93</v>
+      </c>
+      <c r="C33" s="153"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="148"/>
+      <c r="H33" s="147"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -8038,15 +8141,15 @@
       <c r="A34" s="3">
         <v>9</v>
       </c>
-      <c r="B34" s="143">
-        <v>10.06</v>
-      </c>
-      <c r="C34" s="144"/>
+      <c r="B34" s="152">
+        <v>9.89</v>
+      </c>
+      <c r="C34" s="153"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="148"/>
+      <c r="H34" s="147"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -8057,15 +8160,15 @@
       <c r="A35" s="65">
         <v>10</v>
       </c>
-      <c r="B35" s="143">
-        <v>10.02</v>
-      </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="108"/>
+      <c r="B35" s="152">
+        <v>9.86</v>
+      </c>
+      <c r="C35" s="153"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="116"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -8074,7 +8177,7 @@
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8090,28 +8193,28 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:13">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="C37" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="96" t="s">
-        <v>7</v>
-      </c>
       <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="104"/>
+      <c r="H37" s="112"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -8122,26 +8225,26 @@
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="143">
-        <v>100</v>
-      </c>
-      <c r="C38" s="150">
+      <c r="B38" s="152">
+        <v>100.22</v>
+      </c>
+      <c r="C38" s="158">
         <f>IFERROR(AVERAGE(B38:B41),0)</f>
-        <v>100</v>
+        <v>100.265</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="38" t="str">
         <f>Process!H2*'Score Weight'!L10&amp;" out of 4"</f>
-        <v>3.2 out of 4</v>
+        <v>2.8 out of 4</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>Process!H4</f>
-        <v>IT10</v>
-      </c>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
+        <v>IT11</v>
+      </c>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -8152,15 +8255,15 @@
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="143">
-        <v>100</v>
-      </c>
-      <c r="C39" s="151"/>
+      <c r="B39" s="152">
+        <v>100.25</v>
+      </c>
+      <c r="C39" s="159"/>
       <c r="D39" s="3"/>
       <c r="E39" s="38"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -8171,23 +8274,23 @@
       <c r="A40" s="3">
         <v>3</v>
       </c>
-      <c r="B40" s="143">
-        <v>100</v>
-      </c>
-      <c r="C40" s="151"/>
+      <c r="B40" s="152">
+        <v>100.29</v>
+      </c>
+      <c r="C40" s="159"/>
       <c r="D40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="38" t="str">
         <f>Process!H11*'Score Weight'!L11&amp;" out of 4"</f>
-        <v>4 out of 4</v>
+        <v>2.8 out of 4</v>
       </c>
       <c r="F40" s="3" t="str">
         <f>Process!H13</f>
-        <v>Perfect</v>
-      </c>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
+        <v>IT11</v>
+      </c>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -8198,15 +8301,15 @@
       <c r="A41" s="65">
         <v>4</v>
       </c>
-      <c r="B41" s="143">
-        <v>100</v>
-      </c>
-      <c r="C41" s="151"/>
+      <c r="B41" s="152">
+        <v>100.3</v>
+      </c>
+      <c r="C41" s="159"/>
       <c r="D41" s="3"/>
       <c r="E41" s="38"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -8215,7 +8318,7 @@
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:13">
       <c r="A42" s="86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="86"/>
       <c r="C42" s="86"/>
@@ -8307,8 +8410,8 @@
   <sheetPr/>
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:N93"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8324,7 +8427,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8390,7 +8493,7 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8442,7 +8545,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:14">
       <c r="A8" s="65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -8477,23 +8580,23 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:14">
-      <c r="A10" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="96" t="s">
+      <c r="A10" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="98" t="s">
+      <c r="C10" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99" t="s">
+      <c r="E10" s="106"/>
+      <c r="F10" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="100"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -8506,21 +8609,21 @@
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="101">
-        <v>9.85</v>
-      </c>
-      <c r="C11" s="102">
+      <c r="B11" s="109">
+        <v>9.86</v>
+      </c>
+      <c r="C11" s="110">
         <f>AVERAGE(B11:B19)</f>
-        <v>9.92222222222222</v>
-      </c>
-      <c r="D11" s="88" t="s">
+        <v>9.94222222222222</v>
+      </c>
+      <c r="D11" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -8533,18 +8636,18 @@
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="101">
-        <v>9.97</v>
-      </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="105">
+      <c r="B12" s="109">
+        <v>10.01</v>
+      </c>
+      <c r="C12" s="110"/>
+      <c r="D12" s="113">
         <v>5</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="113">
         <v>58</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -8557,16 +8660,16 @@
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="101">
-        <v>9.73</v>
-      </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="108" t="s">
+      <c r="B13" s="109">
+        <v>9.77</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -8579,14 +8682,14 @@
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="101">
-        <v>9.97</v>
-      </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
+      <c r="B14" s="109">
+        <v>10.03</v>
+      </c>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -8599,14 +8702,14 @@
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="101">
-        <v>9.78</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
+      <c r="B15" s="109">
+        <v>9.87</v>
+      </c>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -8619,14 +8722,14 @@
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="101">
-        <v>9.99</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
+      <c r="B16" s="109">
+        <v>10.02</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -8639,14 +8742,14 @@
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="101">
-        <v>9.76</v>
-      </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
+      <c r="B17" s="109">
+        <v>9.8</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -8659,14 +8762,14 @@
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="101">
-        <v>10.03</v>
-      </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
+      <c r="B18" s="109">
+        <v>9.91</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -8679,14 +8782,14 @@
       <c r="A19" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="101">
-        <v>10.22</v>
-      </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
+      <c r="B19" s="109">
+        <v>10.21</v>
+      </c>
+      <c r="C19" s="118"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -8714,25 +8817,25 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:14">
-      <c r="A21" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="96" t="s">
+      <c r="A21" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="103" t="s">
+      <c r="D21" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="100"/>
+      <c r="G21" s="108"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -8745,14 +8848,14 @@
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="111">
-        <v>8.02</v>
+      <c r="B22" s="119">
+        <v>7.96</v>
       </c>
       <c r="C22" s="38">
         <f>MAX(B22:B27)-MIN(B22:B27)</f>
-        <v>0.110000000000001</v>
-      </c>
-      <c r="D22" s="112" t="str">
+        <v>0.14</v>
+      </c>
+      <c r="D22" s="120" t="str">
         <f>Process!L14*'Score Weight'!L13&amp;" out of 5"</f>
         <v>4.5 out of 5</v>
       </c>
@@ -8760,8 +8863,8 @@
         <f>Process!L16</f>
         <v>IT9</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="100"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="108"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -8774,14 +8877,14 @@
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="111">
-        <v>8.06</v>
+      <c r="B23" s="119">
+        <v>7.91</v>
       </c>
       <c r="C23" s="38"/>
-      <c r="D23" s="113"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="100"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -8794,14 +8897,14 @@
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="111">
-        <v>8.1</v>
+      <c r="B24" s="119">
+        <v>7.84</v>
       </c>
       <c r="C24" s="38"/>
-      <c r="D24" s="113"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="100"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -8814,14 +8917,14 @@
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="111">
-        <v>8.13</v>
+      <c r="B25" s="119">
+        <v>7.94</v>
       </c>
       <c r="C25" s="38"/>
-      <c r="D25" s="113"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="100"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="108"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -8834,14 +8937,14 @@
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="111">
-        <v>8.05</v>
+      <c r="B26" s="119">
+        <v>7.82</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="113"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="100"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="108"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -8854,14 +8957,14 @@
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="111">
-        <v>8.07</v>
+      <c r="B27" s="119">
+        <v>7.83</v>
       </c>
       <c r="C27" s="38"/>
-      <c r="D27" s="114"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="115"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -8889,11 +8992,11 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:14">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96" t="s">
+      <c r="B29" s="104"/>
+      <c r="C29" s="104" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -8903,9 +9006,9 @@
       <c r="F29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="115">
+      <c r="G29" s="123">
         <f>Process!M2</f>
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -8924,13 +9027,13 @@
         <f>Process!L6</f>
         <v>No</v>
       </c>
-      <c r="D30" s="116">
+      <c r="D30" s="124">
         <f>Process!L2</f>
-        <v>0.00382</v>
-      </c>
-      <c r="E30" s="116"/>
+        <v>0.00955</v>
+      </c>
+      <c r="E30" s="124"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="115"/>
+      <c r="G30" s="123"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -8948,13 +9051,13 @@
         <f>Process!L8</f>
         <v>No</v>
       </c>
-      <c r="D31" s="117">
+      <c r="D31" s="125">
         <f>Process!L4</f>
-        <v>0.03056</v>
-      </c>
-      <c r="E31" s="117"/>
+        <v>0.0191</v>
+      </c>
+      <c r="E31" s="125"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="115"/>
+      <c r="G31" s="123"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -8982,11 +9085,11 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:14">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96" t="s">
+      <c r="B33" s="104"/>
+      <c r="C33" s="104" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -8994,10 +9097,10 @@
       </c>
       <c r="E33" s="55">
         <f>Process!M4</f>
-        <v>0.45</v>
-      </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
+        <v>0.46</v>
+      </c>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -9007,18 +9110,18 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:14">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="96"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="3" t="str">
         <f>Process!L12</f>
         <v>Yes</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="55"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -9037,9 +9140,9 @@
         <v>Yes</v>
       </c>
       <c r="D35" s="65"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -9050,7 +9153,7 @@
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:14">
       <c r="A36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9085,11 +9188,11 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:14">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96" t="s">
+      <c r="A38" s="104"/>
+      <c r="B38" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="96"/>
+      <c r="C38" s="104"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -9104,7 +9207,7 @@
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:14">
       <c r="A39" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>71</v>
@@ -9126,10 +9229,10 @@
       <c r="A40" s="3">
         <v>1</v>
       </c>
-      <c r="B40" s="101">
-        <v>0</v>
-      </c>
-      <c r="C40" s="101"/>
+      <c r="B40" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="109"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -9146,10 +9249,10 @@
       <c r="A41" s="3">
         <v>2</v>
       </c>
-      <c r="B41" s="101">
-        <v>0</v>
-      </c>
-      <c r="C41" s="101"/>
+      <c r="B41" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="109"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -9166,10 +9269,10 @@
       <c r="A42" s="3">
         <v>3</v>
       </c>
-      <c r="B42" s="101">
-        <v>0</v>
-      </c>
-      <c r="C42" s="101"/>
+      <c r="B42" s="109">
+        <v>0.02</v>
+      </c>
+      <c r="C42" s="109"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -9186,10 +9289,10 @@
       <c r="A43" s="3">
         <v>4</v>
       </c>
-      <c r="B43" s="101">
-        <v>0</v>
-      </c>
-      <c r="C43" s="101"/>
+      <c r="B43" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="109"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -9204,7 +9307,7 @@
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:14">
       <c r="A44" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>72</v>
@@ -9226,10 +9329,10 @@
       <c r="A45" s="3">
         <v>1</v>
       </c>
-      <c r="B45" s="101">
-        <v>0</v>
-      </c>
-      <c r="C45" s="101"/>
+      <c r="B45" s="109">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="109"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -9246,10 +9349,10 @@
       <c r="A46" s="3">
         <v>2</v>
       </c>
-      <c r="B46" s="101">
-        <v>0</v>
-      </c>
-      <c r="C46" s="101"/>
+      <c r="B46" s="109">
+        <v>0.1</v>
+      </c>
+      <c r="C46" s="109"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -9266,10 +9369,10 @@
       <c r="A47" s="3">
         <v>3</v>
       </c>
-      <c r="B47" s="101">
-        <v>0</v>
-      </c>
-      <c r="C47" s="101"/>
+      <c r="B47" s="109">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="109"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -9286,10 +9389,10 @@
       <c r="A48" s="3">
         <v>4</v>
       </c>
-      <c r="B48" s="101">
+      <c r="B48" s="109">
         <v>0</v>
       </c>
-      <c r="C48" s="101"/>
+      <c r="C48" s="109"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -9307,7 +9410,7 @@
         <v>73</v>
       </c>
       <c r="B49" s="73"/>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="93" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="3"/>
@@ -9330,14 +9433,14 @@
       <c r="C50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="120"/>
-      <c r="F50" s="108" t="s">
+      <c r="D50" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="128"/>
+      <c r="F50" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="121"/>
+      <c r="G50" s="129"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -9351,17 +9454,17 @@
         <v>71</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="30" t="str">
+      <c r="C51" s="30">
         <f>IFERROR(50/(SIN(ATAN(AVERAGE(B40:C43)/100))),"Inf")</f>
-        <v>Inf</v>
-      </c>
-      <c r="D51" s="115">
+        <v>32258.1032661058</v>
+      </c>
+      <c r="D51" s="123">
         <f>Process!O2</f>
         <v>1</v>
       </c>
-      <c r="E51" s="122"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="123"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="131"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -9375,17 +9478,17 @@
         <v>72</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="30" t="str">
+      <c r="C52" s="30">
         <f>IFERROR(34/(SIN(ATAN(AVERAGE(B45:C48)/68))),"Inf")</f>
-        <v>Inf</v>
-      </c>
-      <c r="D52" s="115">
+        <v>30826.685416661</v>
+      </c>
+      <c r="D52" s="123">
         <f>Process!O4</f>
         <v>1</v>
       </c>
-      <c r="E52" s="122"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="124"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="132"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -9395,7 +9498,7 @@
       <c r="N52" s="3"/>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:14">
-      <c r="A53" s="125" t="s">
+      <c r="A53" s="133" t="s">
         <v>78</v>
       </c>
       <c r="B53" s="3"/>
@@ -9424,12 +9527,12 @@
         <v>81</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="127"/>
+      <c r="G54" s="135"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -9445,18 +9548,18 @@
       <c r="B55" s="3"/>
       <c r="C55" s="55">
         <f>Process!M2</f>
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D55" s="55">
         <f>ROUND((C55*C56*C57)^1,2)</f>
-        <v>0.44</v>
-      </c>
-      <c r="E55" s="128" t="str">
+        <v>0.45</v>
+      </c>
+      <c r="E55" s="136" t="str">
         <f>D55*'Score Weight'!L12&amp;" out of 10"</f>
-        <v>4.4 out of 10</v>
-      </c>
-      <c r="F55" s="129"/>
-      <c r="G55" s="130"/>
+        <v>4.5 out of 10</v>
+      </c>
+      <c r="F55" s="137"/>
+      <c r="G55" s="138"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -9472,12 +9575,12 @@
       <c r="B56" s="3"/>
       <c r="C56" s="55">
         <f>Process!M4</f>
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D56" s="55"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="130"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="138"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -9496,9 +9599,9 @@
         <v>1</v>
       </c>
       <c r="D57" s="55"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="134"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="142"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -9526,48 +9629,48 @@
       <c r="N58" s="3"/>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:14">
-      <c r="A59" s="87" t="s">
+      <c r="A59" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="135" t="s">
+      <c r="B59" s="88"/>
+      <c r="C59" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="88" t="s">
+      <c r="D59" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="89" t="s">
+      <c r="E59" s="90" t="s">
         <v>84</v>
       </c>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="144"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="144"/>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:14">
-      <c r="A60" s="87"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="137">
+      <c r="A60" s="88"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="145">
         <v>2</v>
       </c>
-      <c r="D60" s="105">
+      <c r="D60" s="113">
         <v>0</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:14">
       <c r="A61" s="3" t="s">
@@ -9578,94 +9681,94 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="144"/>
+      <c r="N61" s="144"/>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:14">
       <c r="A62" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="138"/>
-      <c r="F62" s="89" t="s">
+      <c r="E62" s="146"/>
+      <c r="F62" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
+      <c r="M62" s="144"/>
+      <c r="N62" s="144"/>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:14">
       <c r="A63" s="3">
         <v>1</v>
       </c>
-      <c r="B63" s="101">
+      <c r="B63" s="109">
         <v>79.86</v>
       </c>
       <c r="C63" s="38">
         <f>AVERAGE(B63:B68)</f>
         <v>79.8633333333333</v>
       </c>
-      <c r="D63" s="138" t="str">
+      <c r="D63" s="146" t="str">
         <f>Process!C25</f>
         <v>Yes</v>
       </c>
-      <c r="E63" s="138"/>
+      <c r="E63" s="146"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="144"/>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:14">
       <c r="A64" s="3">
         <v>2</v>
       </c>
-      <c r="B64" s="101">
+      <c r="B64" s="109">
         <v>79.87</v>
       </c>
       <c r="C64" s="38"/>
-      <c r="D64" s="138" t="s">
+      <c r="D64" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="138"/>
+      <c r="E64" s="146"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="144"/>
+      <c r="M64" s="144"/>
+      <c r="N64" s="144"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:14">
       <c r="A65" s="3">
         <v>3</v>
       </c>
-      <c r="B65" s="101">
+      <c r="B65" s="109">
         <v>79.82</v>
       </c>
       <c r="C65" s="38"/>
@@ -9675,20 +9778,20 @@
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
+      <c r="M65" s="144"/>
+      <c r="N65" s="144"/>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:14">
       <c r="A66" s="3">
         <v>4</v>
       </c>
-      <c r="B66" s="101">
+      <c r="B66" s="109">
         <v>79.91</v>
       </c>
       <c r="C66" s="38"/>
@@ -9697,24 +9800,24 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="136"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G66" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="144"/>
+      <c r="L66" s="144"/>
+      <c r="M66" s="144"/>
+      <c r="N66" s="144"/>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:14">
       <c r="A67" s="3">
         <v>5</v>
       </c>
-      <c r="B67" s="101">
+      <c r="B67" s="109">
         <v>79.84</v>
       </c>
       <c r="C67" s="38"/>
@@ -9729,23 +9832,23 @@
         <f>Process!C23</f>
         <v>9</v>
       </c>
-      <c r="G67" s="38" t="str">
+      <c r="G67" s="42" t="str">
         <f>ROUND(E67*0.6+E68*0.4,2)*'Score Weight'!L14&amp;" out of 2.5"</f>
         <v>1.3 out of 2.5</v>
       </c>
-      <c r="H67" s="136"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+      <c r="H67" s="144"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="144"/>
+      <c r="K67" s="144"/>
+      <c r="L67" s="144"/>
+      <c r="M67" s="144"/>
+      <c r="N67" s="144"/>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:14">
       <c r="A68" s="3">
         <v>6</v>
       </c>
-      <c r="B68" s="101">
+      <c r="B68" s="109">
         <v>79.88</v>
       </c>
       <c r="C68" s="38"/>
@@ -9760,112 +9863,112 @@
         <f>Process!D26</f>
         <v>IT10</v>
       </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="136"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="144"/>
+      <c r="K68" s="144"/>
+      <c r="L68" s="144"/>
+      <c r="M68" s="144"/>
+      <c r="N68" s="144"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:14">
       <c r="A69" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="139"/>
-      <c r="C69" s="139"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="148"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="144"/>
+      <c r="K69" s="144"/>
+      <c r="L69" s="144"/>
+      <c r="M69" s="144"/>
+      <c r="N69" s="144"/>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:14">
       <c r="A70" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="138"/>
-      <c r="F70" s="89" t="s">
+      <c r="E70" s="146"/>
+      <c r="F70" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="144"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="144"/>
+      <c r="K70" s="144"/>
+      <c r="L70" s="144"/>
+      <c r="M70" s="144"/>
+      <c r="N70" s="144"/>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:14">
       <c r="A71" s="3">
         <v>1</v>
       </c>
-      <c r="B71" s="101">
+      <c r="B71" s="109">
         <v>99.92</v>
       </c>
       <c r="C71" s="38">
         <f>AVERAGE(B71:B76)</f>
         <v>99.9316666666667</v>
       </c>
-      <c r="D71" s="138" t="str">
+      <c r="D71" s="146" t="str">
         <f>Process!G25</f>
         <v>No</v>
       </c>
-      <c r="E71" s="138"/>
+      <c r="E71" s="146"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="144"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="144"/>
+      <c r="N71" s="144"/>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:14">
       <c r="A72" s="3">
         <v>2</v>
       </c>
-      <c r="B72" s="101">
+      <c r="B72" s="109">
         <v>99.96</v>
       </c>
       <c r="C72" s="38"/>
-      <c r="D72" s="138" t="s">
+      <c r="D72" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="138"/>
+      <c r="E72" s="146"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="144"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="144"/>
+      <c r="K72" s="144"/>
+      <c r="L72" s="144"/>
+      <c r="M72" s="144"/>
+      <c r="N72" s="144"/>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:14">
       <c r="A73" s="3">
         <v>3</v>
       </c>
-      <c r="B73" s="101">
+      <c r="B73" s="109">
         <v>99.95</v>
       </c>
       <c r="C73" s="38"/>
@@ -9875,20 +9978,20 @@
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+      <c r="G73" s="147"/>
+      <c r="H73" s="144"/>
+      <c r="I73" s="144"/>
+      <c r="J73" s="144"/>
+      <c r="K73" s="144"/>
+      <c r="L73" s="144"/>
+      <c r="M73" s="144"/>
+      <c r="N73" s="144"/>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:14">
       <c r="A74" s="3">
         <v>4</v>
       </c>
-      <c r="B74" s="101">
+      <c r="B74" s="109">
         <v>99.89</v>
       </c>
       <c r="C74" s="38"/>
@@ -9897,24 +10000,24 @@
       </c>
       <c r="E74" s="30"/>
       <c r="F74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G74" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="144"/>
+      <c r="I74" s="144"/>
+      <c r="J74" s="144"/>
+      <c r="K74" s="144"/>
+      <c r="L74" s="144"/>
+      <c r="M74" s="144"/>
+      <c r="N74" s="144"/>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:14">
       <c r="A75" s="3">
         <v>5</v>
       </c>
-      <c r="B75" s="101">
+      <c r="B75" s="109">
         <v>99.9</v>
       </c>
       <c r="C75" s="38"/>
@@ -9929,23 +10032,23 @@
         <f>Process!G23</f>
         <v>8</v>
       </c>
-      <c r="G75" s="38" t="str">
+      <c r="G75" s="42" t="str">
         <f>ROUND(E75*0.6+E76*0.4,2)*'Score Weight'!L15&amp;" out of 2.5"</f>
         <v>1.95 out of 2.5</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="H75" s="144"/>
+      <c r="I75" s="144"/>
+      <c r="J75" s="144"/>
+      <c r="K75" s="144"/>
+      <c r="L75" s="144"/>
+      <c r="M75" s="144"/>
+      <c r="N75" s="144"/>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:14">
       <c r="A76" s="3">
         <v>6</v>
       </c>
-      <c r="B76" s="101">
+      <c r="B76" s="109">
         <v>99.97</v>
       </c>
       <c r="C76" s="38"/>
@@ -9960,14 +10063,14 @@
         <f>Process!H26</f>
         <v>IT9</v>
       </c>
-      <c r="G76" s="38"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="144"/>
+      <c r="I76" s="144"/>
+      <c r="J76" s="144"/>
+      <c r="K76" s="144"/>
+      <c r="L76" s="144"/>
+      <c r="M76" s="144"/>
+      <c r="N76" s="144"/>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:14">
       <c r="A77" s="3" t="s">
@@ -9978,94 +10081,94 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="144"/>
+      <c r="K77" s="144"/>
+      <c r="L77" s="144"/>
+      <c r="M77" s="144"/>
+      <c r="N77" s="144"/>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:14">
       <c r="A78" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="138"/>
-      <c r="F78" s="140" t="s">
+      <c r="E78" s="146"/>
+      <c r="F78" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="144"/>
+      <c r="I78" s="144"/>
+      <c r="J78" s="144"/>
+      <c r="K78" s="144"/>
+      <c r="L78" s="144"/>
+      <c r="M78" s="144"/>
+      <c r="N78" s="144"/>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:14">
       <c r="A79" s="3">
         <v>1</v>
       </c>
-      <c r="B79" s="101">
+      <c r="B79" s="109">
         <v>29.93</v>
       </c>
       <c r="C79" s="38">
         <f>AVERAGE(B79:B84)</f>
         <v>29.9283333333333</v>
       </c>
-      <c r="D79" s="138" t="str">
+      <c r="D79" s="146" t="str">
         <f>Process!K25</f>
         <v>Yes</v>
       </c>
-      <c r="E79" s="138"/>
+      <c r="E79" s="146"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="144"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="144"/>
+      <c r="K79" s="144"/>
+      <c r="L79" s="144"/>
+      <c r="M79" s="144"/>
+      <c r="N79" s="144"/>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:14">
       <c r="A80" s="3">
         <v>2</v>
       </c>
-      <c r="B80" s="101">
+      <c r="B80" s="109">
         <v>29.95</v>
       </c>
       <c r="C80" s="38"/>
-      <c r="D80" s="138" t="s">
+      <c r="D80" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="E80" s="138"/>
+      <c r="E80" s="146"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
+      <c r="G80" s="147"/>
+      <c r="H80" s="144"/>
+      <c r="I80" s="144"/>
+      <c r="J80" s="144"/>
+      <c r="K80" s="144"/>
+      <c r="L80" s="144"/>
+      <c r="M80" s="144"/>
+      <c r="N80" s="144"/>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:14">
       <c r="A81" s="3">
         <v>3</v>
       </c>
-      <c r="B81" s="101">
+      <c r="B81" s="109">
         <v>29.92</v>
       </c>
       <c r="C81" s="38"/>
@@ -10075,20 +10178,20 @@
       </c>
       <c r="E81" s="30"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="72"/>
-      <c r="K81" s="72"/>
-      <c r="L81" s="72"/>
-      <c r="M81" s="72"/>
-      <c r="N81" s="73"/>
+      <c r="G81" s="147"/>
+      <c r="H81" s="144"/>
+      <c r="I81" s="144"/>
+      <c r="J81" s="144"/>
+      <c r="K81" s="144"/>
+      <c r="L81" s="144"/>
+      <c r="M81" s="144"/>
+      <c r="N81" s="144"/>
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:14">
       <c r="A82" s="3">
         <v>4</v>
       </c>
-      <c r="B82" s="101">
+      <c r="B82" s="109">
         <v>29.87</v>
       </c>
       <c r="C82" s="38"/>
@@ -10097,24 +10200,24 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="74"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="75"/>
+        <v>27</v>
+      </c>
+      <c r="G82" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="144"/>
+      <c r="I82" s="144"/>
+      <c r="J82" s="144"/>
+      <c r="K82" s="144"/>
+      <c r="L82" s="144"/>
+      <c r="M82" s="144"/>
+      <c r="N82" s="144"/>
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:14">
       <c r="A83" s="3">
         <v>5</v>
       </c>
-      <c r="B83" s="101">
+      <c r="B83" s="109">
         <v>29.93</v>
       </c>
       <c r="C83" s="38"/>
@@ -10129,23 +10232,23 @@
         <f>Process!K23</f>
         <v>10</v>
       </c>
-      <c r="G83" s="38" t="str">
+      <c r="G83" s="42" t="str">
         <f>ROUND(E83*0.6+E84*0.4,2)*'Score Weight'!L16&amp;" out of 2.5"</f>
         <v>1 out of 2.5</v>
       </c>
-      <c r="H83" s="74"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="75"/>
+      <c r="H83" s="144"/>
+      <c r="I83" s="144"/>
+      <c r="J83" s="144"/>
+      <c r="K83" s="144"/>
+      <c r="L83" s="144"/>
+      <c r="M83" s="144"/>
+      <c r="N83" s="144"/>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:14">
       <c r="A84" s="3">
         <v>6</v>
       </c>
-      <c r="B84" s="101">
+      <c r="B84" s="109">
         <v>29.97</v>
       </c>
       <c r="C84" s="38"/>
@@ -10160,112 +10263,112 @@
         <f>Process!L26</f>
         <v>IT10</v>
       </c>
-      <c r="G84" s="38"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="75"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="144"/>
+      <c r="I84" s="144"/>
+      <c r="J84" s="144"/>
+      <c r="K84" s="144"/>
+      <c r="L84" s="144"/>
+      <c r="M84" s="144"/>
+      <c r="N84" s="144"/>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:14">
       <c r="A85" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="139"/>
-      <c r="C85" s="139"/>
+      <c r="B85" s="148"/>
+      <c r="C85" s="148"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="74"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="75"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="144"/>
+      <c r="I85" s="144"/>
+      <c r="J85" s="144"/>
+      <c r="K85" s="144"/>
+      <c r="L85" s="144"/>
+      <c r="M85" s="144"/>
+      <c r="N85" s="144"/>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:14">
       <c r="A86" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="E86" s="138"/>
+      <c r="E86" s="146"/>
       <c r="F86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="74"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="75"/>
+      <c r="G86" s="147"/>
+      <c r="H86" s="144"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="144"/>
+      <c r="L86" s="144"/>
+      <c r="M86" s="144"/>
+      <c r="N86" s="144"/>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:14">
       <c r="A87" s="3">
         <v>1</v>
       </c>
-      <c r="B87" s="141">
+      <c r="B87" s="150">
         <v>49.98</v>
       </c>
       <c r="C87" s="38">
         <f>AVERAGE(B87:B92)</f>
         <v>49.9433333333333</v>
       </c>
-      <c r="D87" s="138" t="str">
+      <c r="D87" s="146" t="str">
         <f>Process!C39</f>
         <v>No</v>
       </c>
-      <c r="E87" s="138"/>
+      <c r="E87" s="146"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="75"/>
+      <c r="G87" s="147"/>
+      <c r="H87" s="144"/>
+      <c r="I87" s="144"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="144"/>
+      <c r="L87" s="144"/>
+      <c r="M87" s="144"/>
+      <c r="N87" s="144"/>
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:14">
       <c r="A88" s="3">
         <v>2</v>
       </c>
-      <c r="B88" s="141">
+      <c r="B88" s="150">
         <v>49.91</v>
       </c>
       <c r="C88" s="38"/>
-      <c r="D88" s="138" t="s">
+      <c r="D88" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="E88" s="138"/>
+      <c r="E88" s="146"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="75"/>
+      <c r="G88" s="147"/>
+      <c r="H88" s="144"/>
+      <c r="I88" s="144"/>
+      <c r="J88" s="144"/>
+      <c r="K88" s="144"/>
+      <c r="L88" s="144"/>
+      <c r="M88" s="144"/>
+      <c r="N88" s="144"/>
     </row>
     <row r="89" ht="20" customHeight="1" spans="1:14">
       <c r="A89" s="3">
         <v>3</v>
       </c>
-      <c r="B89" s="141">
+      <c r="B89" s="150">
         <v>49.96</v>
       </c>
       <c r="C89" s="38"/>
@@ -10275,20 +10378,20 @@
       </c>
       <c r="E89" s="30"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="75"/>
+      <c r="G89" s="147"/>
+      <c r="H89" s="144"/>
+      <c r="I89" s="144"/>
+      <c r="J89" s="144"/>
+      <c r="K89" s="144"/>
+      <c r="L89" s="144"/>
+      <c r="M89" s="144"/>
+      <c r="N89" s="144"/>
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:14">
       <c r="A90" s="3">
         <v>4</v>
       </c>
-      <c r="B90" s="141">
+      <c r="B90" s="150">
         <v>49.92</v>
       </c>
       <c r="C90" s="38"/>
@@ -10297,24 +10400,24 @@
       </c>
       <c r="E90" s="30"/>
       <c r="F90" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="74"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="75"/>
+        <v>27</v>
+      </c>
+      <c r="G90" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="144"/>
+      <c r="I90" s="144"/>
+      <c r="J90" s="144"/>
+      <c r="K90" s="144"/>
+      <c r="L90" s="144"/>
+      <c r="M90" s="144"/>
+      <c r="N90" s="144"/>
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:14">
       <c r="A91" s="3">
         <v>5</v>
       </c>
-      <c r="B91" s="141">
+      <c r="B91" s="150">
         <v>49.94</v>
       </c>
       <c r="C91" s="38"/>
@@ -10329,23 +10432,23 @@
         <f>Process!C37</f>
         <v>9</v>
       </c>
-      <c r="G91" s="38" t="str">
+      <c r="G91" s="42" t="str">
         <f>ROUND(E91*0.6+E92*0.4,2)*'Score Weight'!L17&amp;" out of 2.5"</f>
         <v>1.8 out of 2.5</v>
       </c>
-      <c r="H91" s="74"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="75"/>
+      <c r="H91" s="144"/>
+      <c r="I91" s="144"/>
+      <c r="J91" s="144"/>
+      <c r="K91" s="144"/>
+      <c r="L91" s="144"/>
+      <c r="M91" s="144"/>
+      <c r="N91" s="144"/>
     </row>
     <row r="92" ht="20" customHeight="1" spans="1:14">
       <c r="A92" s="3">
         <v>6</v>
       </c>
-      <c r="B92" s="141">
+      <c r="B92" s="150">
         <v>49.95</v>
       </c>
       <c r="C92" s="38"/>
@@ -10360,18 +10463,18 @@
         <f>Process!D40</f>
         <v>IT9</v>
       </c>
-      <c r="G92" s="38"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-      <c r="N92" s="78"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="144"/>
+      <c r="I92" s="144"/>
+      <c r="J92" s="144"/>
+      <c r="K92" s="144"/>
+      <c r="L92" s="144"/>
+      <c r="M92" s="144"/>
+      <c r="N92" s="144"/>
     </row>
     <row r="93" ht="20" customHeight="1" spans="1:14">
       <c r="A93" s="86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
@@ -10388,7 +10491,7 @@
       <c r="N93" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="106">
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="A8:N8"/>
     <mergeCell ref="A9:G9"/>
@@ -10485,7 +10588,6 @@
     <mergeCell ref="F10:G12"/>
     <mergeCell ref="D38:G49"/>
     <mergeCell ref="H47:N57"/>
-    <mergeCell ref="H59:N69"/>
     <mergeCell ref="F50:G52"/>
     <mergeCell ref="F62:G65"/>
     <mergeCell ref="F70:G73"/>
@@ -10493,9 +10595,9 @@
     <mergeCell ref="E59:G60"/>
     <mergeCell ref="F78:G81"/>
     <mergeCell ref="F86:G89"/>
-    <mergeCell ref="H70:N80"/>
-    <mergeCell ref="H81:N92"/>
     <mergeCell ref="F54:G57"/>
+    <mergeCell ref="H77:N92"/>
+    <mergeCell ref="H59:N76"/>
   </mergeCells>
   <conditionalFormatting sqref="C55:D57 D51:E52 E33:E35 G29:G31 E67:E68 E75:E76 E83:E84 E91:E92">
     <cfRule type="colorScale" priority="1">
@@ -10551,8 +10653,8 @@
   <sheetPr/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10565,7 +10667,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10631,7 +10733,7 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -10683,7 +10785,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:14">
       <c r="A8" s="65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -10709,101 +10811,101 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="100"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:14">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="101"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:14">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="90">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="92">
         <v>1</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="92">
         <v>8</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="101"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:14">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="101"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="101"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:14">
       <c r="A14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="93">
         <v>4</v>
       </c>
       <c r="C14" s="40" t="str">
@@ -10814,35 +10916,35 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="101"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:14">
       <c r="A15" s="4"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="103"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="93">
         <v>3</v>
       </c>
       <c r="C16" s="40" t="str">
@@ -10853,35 +10955,35 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="100"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:14">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="92"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="101"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="93" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="40" t="str">
@@ -10892,29 +10994,29 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="101"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:14">
-      <c r="A19" s="93"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="92"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="101"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:14">
       <c r="A20" s="3" t="s">
@@ -10926,101 +11028,101 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="101"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:14">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="89" t="s">
+      <c r="E21" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="101"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:14">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="90">
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="92">
         <v>0</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="92">
         <v>49</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="101"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:14">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="103"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:14">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="100"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="93" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="40" t="str">
@@ -11031,35 +11133,35 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="101"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:14">
       <c r="A26" s="4"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="101"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="91">
+      <c r="B27" s="93">
         <v>11.42</v>
       </c>
       <c r="C27" s="40" t="str">
@@ -11070,38 +11172,36 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="101"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:14">
       <c r="A28" s="4"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="101"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:14">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="93" t="s">
         <v>111</v>
-      </c>
-      <c r="B29" s="91" t="s">
-        <v>112</v>
       </c>
       <c r="C29" s="40" t="str">
         <f>Process!Q7&amp;" out of 3"</f>
@@ -11111,35 +11211,35 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="101"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:14">
-      <c r="A30" s="95"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="101"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:14">
-      <c r="A31" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="91" t="s">
+      <c r="A31" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="93" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="40" t="str">
@@ -11150,36 +11250,36 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="101"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:14">
-      <c r="A32" s="95"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="101"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:14">
       <c r="A33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="93" t="s">
         <v>114</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>115</v>
       </c>
       <c r="C33" s="40" t="str">
         <f>Process!Q9&amp;" out of 4"</f>
@@ -11189,33 +11289,33 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="101"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:14">
       <c r="A34" s="4"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="101"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="37" t="str">
         <f>SUM(Process!Q2:Q9)&amp;" out of 25"</f>
@@ -11226,13 +11326,13 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="101"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
@@ -11242,17 +11342,17 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:14">
       <c r="A37" s="86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="86"/>
       <c r="C37" s="86"/>
@@ -11331,14 +11431,14 @@
     <mergeCell ref="A6:N7"/>
     <mergeCell ref="E10:G12"/>
     <mergeCell ref="A10:B12"/>
-    <mergeCell ref="H9:N18"/>
-    <mergeCell ref="H19:N26"/>
     <mergeCell ref="D13:G19"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="E21:G23"/>
     <mergeCell ref="B35:C36"/>
     <mergeCell ref="D24:G36"/>
-    <mergeCell ref="H27:N36"/>
+    <mergeCell ref="H9:N15"/>
+    <mergeCell ref="H16:N23"/>
+    <mergeCell ref="H24:N36"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B30">
@@ -11376,7 +11476,7 @@
   <sheetPr/>
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
@@ -11393,7 +11493,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11463,7 +11563,7 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -11482,7 +11582,7 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:15">
       <c r="A6" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -11518,7 +11618,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -11537,21 +11637,21 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>63</v>
@@ -11566,26 +11666,26 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="38" t="str">
         <f>ROUND(Process!D2*4,2)&amp;" out of 4"</f>
-        <v>4 out of 4</v>
+        <v>3.66 out of 4</v>
       </c>
       <c r="D10" s="67">
         <f>Process!D2</f>
-        <v>1</v>
+        <v>0.914012830433435</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="68" t="str">
         <f>ROUND(SUM(Process!D2*6+Process!D4*4+Process!H2*4+Process!H11*4),2)&amp;" out of 18"</f>
-        <v>17.2 out of 18</v>
+        <v>13.08 out of 18</v>
       </c>
       <c r="H10" s="69">
         <f>SUM(Process!D2*6+Process!D4*4+Process!H2*4+Process!H11*4)/18</f>
-        <v>0.955555555555555</v>
+        <v>0.726893165700034</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -11597,16 +11697,16 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="38" t="str">
         <f>ROUND(Process!D4*6,2)&amp;" out of 6"</f>
-        <v>6 out of 6</v>
+        <v>3 out of 6</v>
       </c>
       <c r="D11" s="67">
         <f>Process!D4</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -11622,16 +11722,16 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="38" t="str">
         <f>ROUND(Process!H2*4,2)&amp;" out of 4"</f>
-        <v>3.2 out of 4</v>
+        <v>2.8 out of 4</v>
       </c>
       <c r="D12" s="67">
         <f>Process!H2</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -11647,16 +11747,16 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="38" t="str">
         <f>ROUND(Process!H11*4,2)&amp;" out of 4"</f>
-        <v>4 out of 4</v>
+        <v>2.8 out of 4</v>
       </c>
       <c r="D13" s="67">
         <f>Process!H11</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -11757,7 +11857,7 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -11776,23 +11876,23 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>63</v>
@@ -11807,29 +11907,29 @@
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="69">
         <f>Process!$M$4</f>
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D21" s="69">
         <f>Process!M12</f>
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E21" s="70" t="str">
         <f>D21*10&amp;" out of 10"</f>
-        <v>4.4 out of 10</v>
+        <v>4.5 out of 10</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="38" t="str">
         <f>(Process!C43+Process!D43)*5+Process!M12*10+Process!L14*5&amp;" out of 25"</f>
-        <v>14.95 out of 25</v>
+        <v>15.05 out of 25</v>
       </c>
       <c r="H21" s="69">
         <f>((Process!C43+Process!D43)*5+Process!M12*10+Process!L14*5)/25</f>
-        <v>0.598</v>
+        <v>0.602</v>
       </c>
       <c r="I21" s="74"/>
       <c r="J21" s="35"/>
@@ -11841,12 +11941,12 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="69">
         <f>Process!$M$2</f>
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="70"/>
@@ -11863,7 +11963,7 @@
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="69">
@@ -11885,11 +11985,11 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>63</v>
@@ -11908,7 +12008,7 @@
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:15">
       <c r="A25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="38" t="str">
@@ -11933,7 +12033,7 @@
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:15">
       <c r="A26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="38" t="str">
@@ -11958,7 +12058,7 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:15">
       <c r="A27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="38" t="str">
@@ -12068,7 +12168,7 @@
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:15">
       <c r="A33" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -12087,17 +12187,17 @@
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:15">
       <c r="A34" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>63</v>
@@ -12112,7 +12212,7 @@
     </row>
     <row r="35" ht="20" customHeight="1" spans="5:15">
       <c r="E35" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="38" t="str">
@@ -12133,7 +12233,7 @@
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:15">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="37" t="str">
@@ -12161,7 +12261,7 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:15">
       <c r="A37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="37" t="str">
@@ -12186,7 +12286,7 @@
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:15">
       <c r="A38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -12205,17 +12305,17 @@
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:15">
       <c r="A39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="38"/>
@@ -12230,7 +12330,7 @@
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:15">
       <c r="A40" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="37" t="str">
@@ -12258,7 +12358,7 @@
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:15">
       <c r="A41" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="37" t="str">
@@ -12283,7 +12383,7 @@
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:15">
       <c r="A42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="37" t="str">
@@ -12308,7 +12408,7 @@
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:15">
       <c r="A43" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -12327,17 +12427,17 @@
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:15">
       <c r="A44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="38"/>
@@ -12352,7 +12452,7 @@
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:15">
       <c r="A45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="37" t="str">
@@ -12380,7 +12480,7 @@
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:15">
       <c r="A46" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="37" t="str">
@@ -12405,7 +12505,7 @@
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:15">
       <c r="A47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="37" t="str">
@@ -12498,7 +12598,7 @@
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:15">
       <c r="A52" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -12517,21 +12617,21 @@
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:15">
       <c r="A53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>63</v>
@@ -12546,7 +12646,7 @@
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:15">
       <c r="A54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="38" t="str">
@@ -12594,7 +12694,7 @@
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:15">
       <c r="A56" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="38" t="str">
@@ -12805,7 +12905,7 @@
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:15">
       <c r="A67" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -12824,21 +12924,21 @@
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:15">
       <c r="A68" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E68" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="73"/>
       <c r="G68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>63</v>
@@ -12853,26 +12953,26 @@
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:15">
       <c r="A69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="38" t="str">
         <f>Process!T7&amp;" out of 18"</f>
-        <v>17.2 out of 18</v>
+        <v>12.26 out of 18</v>
       </c>
       <c r="D69" s="69">
         <f>Process!S7</f>
-        <v>0.955555555555555</v>
+        <v>0.681111111111111</v>
       </c>
       <c r="E69" s="74"/>
       <c r="F69" s="75"/>
       <c r="G69" s="80" t="str">
         <f>ROUND(SUM(Process!T7:T10),2)&amp;" out of 100"</f>
-        <v>83.42 out of 100</v>
+        <v>78.58 out of 100</v>
       </c>
       <c r="H69" s="81">
         <f>SUM(Process!T7:T10)/100</f>
-        <v>0.83421</v>
+        <v>0.78581</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -12901,16 +13001,16 @@
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:15">
       <c r="A71" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="38" t="str">
         <f>Process!T8&amp;" out of 25"</f>
-        <v>14.95 out of 25</v>
+        <v>15.05 out of 25</v>
       </c>
       <c r="D71" s="69">
         <f>Process!S8</f>
-        <v>0.598</v>
+        <v>0.602</v>
       </c>
       <c r="E71" s="74"/>
       <c r="F71" s="75"/>
@@ -12943,7 +13043,7 @@
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="38" t="str">
@@ -12985,7 +13085,7 @@
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:15">
       <c r="A75" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" s="73"/>
       <c r="C75" s="38" t="str">
@@ -13129,7 +13229,7 @@
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:15">
       <c r="A83" s="86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
@@ -13388,7 +13488,7 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -13417,56 +13517,56 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:25">
       <c r="A1" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="M1" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="N1" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="O1" s="50" t="s">
         <v>158</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>159</v>
       </c>
       <c r="P1" s="52"/>
       <c r="Q1" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R1" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S1" s="58">
         <f>T1/8</f>
@@ -13477,7 +13577,7 @@
         <v>6.5</v>
       </c>
       <c r="U1" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V1" s="29"/>
       <c r="W1" s="29"/>
@@ -13490,67 +13590,67 @@
       </c>
       <c r="B2" s="33">
         <f>Basic!B11-100</f>
-        <v>0</v>
+        <v>-0.290000000000006</v>
       </c>
       <c r="C2" s="33">
         <f>ABS(B2)</f>
-        <v>0</v>
+        <v>0.290000000000006</v>
       </c>
       <c r="D2" s="30">
         <f>EXP(-STDEV(Process!B2:B9))</f>
-        <v>1</v>
+        <v>0.914012830433435</v>
       </c>
       <c r="E2" s="31">
         <v>1</v>
       </c>
       <c r="F2" s="34">
         <f>Basic!B26-10</f>
-        <v>0.0199999999999996</v>
+        <v>-0.0899999999999999</v>
       </c>
       <c r="G2" s="34">
         <f>Basic!B38-100</f>
-        <v>0</v>
+        <v>0.219999999999999</v>
       </c>
       <c r="H2" s="30">
         <f>LOOKUP(MAX(F11:F18),Misc!C11:C21,Misc!G11:G21)</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I2" s="50">
         <v>1</v>
       </c>
       <c r="J2" s="53">
         <f>Engineering!B11-10</f>
-        <v>-0.15</v>
+        <v>-0.140000000000001</v>
       </c>
       <c r="K2" s="54">
         <f>ABS(J2)</f>
-        <v>0.15</v>
+        <v>0.140000000000001</v>
       </c>
       <c r="L2" s="50">
         <f>ROUND(ASIN(ABS(AVERAGE(Engineering!B11:B13)-AVERAGE(Engineering!B15:B17))/100)*180/PI(),5)</f>
-        <v>0.00382</v>
+        <v>0.00955</v>
       </c>
       <c r="M2" s="53">
         <f>ROUND((VLOOKUP(L6,Misc!M5:N6,2,FALSE)*EXP(-ABS(AVERAGE(Engineering!B11:B13)-AVERAGE(Engineering!B15:B17))))/2+(VLOOKUP(L8,Misc!M5:N6,2,FALSE)*EXP(-ABS(AVERAGE(Engineering!B13:B15)-AVERAGE(Engineering!B17:B18,Engineering!B11))))/2,2)</f>
-        <v>0.97</v>
-      </c>
-      <c r="N2" s="50" t="str">
+        <v>0.98</v>
+      </c>
+      <c r="N2" s="50">
         <f>IFERROR(50/(SIN(ATAN(AVERAGE(Engineering!B40:C43)/100))),"Inf")</f>
-        <v>Inf</v>
+        <v>32258.1032661058</v>
       </c>
       <c r="O2" s="50">
         <f>ROUND(IFERROR(1-EXP(-N2/10^3.5),1)*IF(MAX(Engineering!B40:C43)&gt;2.5,0,1)*VLOOKUP(Engineering!C49,Misc!M5:N6,2,FALSE),2)</f>
         <v>1</v>
       </c>
       <c r="P2" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q2" s="56">
         <f>VLOOKUP(Art!$B$14,Misc!$O$2:$P$7,2,FALSE)*'Score Weight'!L18</f>
         <v>4</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S2" s="58">
         <f>T2/9</f>
@@ -13561,19 +13661,19 @@
         <v>6.2</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V2" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="W2" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="X2" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>166</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:25">
@@ -13582,61 +13682,61 @@
       </c>
       <c r="B3" s="33">
         <f>Basic!B12-100</f>
-        <v>0</v>
+        <v>-0.489999999999995</v>
       </c>
       <c r="C3" s="33">
         <f t="shared" ref="C3:C9" si="0">ABS(B3)</f>
-        <v>0</v>
+        <v>0.489999999999995</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
       </c>
       <c r="F3" s="34">
         <f>Basic!B27-10</f>
-        <v>-0.0199999999999996</v>
+        <v>-0.0999999999999996</v>
       </c>
       <c r="G3" s="34">
         <f>Basic!B39-100</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" s="50">
         <v>2</v>
       </c>
       <c r="J3" s="53">
         <f>Engineering!B12-10</f>
-        <v>-0.0299999999999994</v>
+        <v>0.00999999999999979</v>
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3:K9" si="1">ABS(J3)</f>
-        <v>0.0299999999999994</v>
+        <v>0.00999999999999979</v>
       </c>
       <c r="L3" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="N3" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="O3" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="P3" s="52" t="s">
         <v>173</v>
-      </c>
-      <c r="P3" s="52" t="s">
-        <v>174</v>
       </c>
       <c r="Q3" s="56">
         <f>VLOOKUP(Art!$B$16,Misc!C3:D8,2,FALSE)*'Score Weight'!L19</f>
         <v>2.4</v>
       </c>
       <c r="R3" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S3" s="58">
         <f>T3/8</f>
@@ -13647,7 +13747,7 @@
         <v>7.86</v>
       </c>
       <c r="U3" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V3" s="33">
         <f>Misc!I11</f>
@@ -13672,60 +13772,60 @@
       </c>
       <c r="B4" s="33">
         <f>Basic!B13-100</f>
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="C4" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.480000000000004</v>
       </c>
       <c r="D4" s="30">
         <f>LOOKUP(MAX(C2:C9),Misc!B11:B21,Misc!G11:G21)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="31">
         <v>3</v>
       </c>
       <c r="F4" s="34">
         <f>Basic!B28-10</f>
-        <v>-0.0700000000000003</v>
+        <v>-0.140000000000001</v>
       </c>
       <c r="G4" s="34">
         <f>Basic!B40-100</f>
-        <v>0</v>
+        <v>0.290000000000006</v>
       </c>
       <c r="H4" s="30" t="str">
         <f>LOOKUP(MAX(F11:F18),Misc!C11:C21,Misc!A11:A21)</f>
-        <v>IT10</v>
+        <v>IT11</v>
       </c>
       <c r="I4" s="50">
         <v>3</v>
       </c>
       <c r="J4" s="53">
         <f>Engineering!B13-10</f>
-        <v>-0.27</v>
+        <v>-0.23</v>
       </c>
       <c r="K4" s="54">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="L4" s="50">
         <f>ROUND(ASIN(ABS(AVERAGE(Engineering!B13:B15)-AVERAGE(Engineering!B17:B18,Engineering!B11))/100)*180/PI(),5)</f>
-        <v>0.03056</v>
+        <v>0.0191</v>
       </c>
       <c r="M4" s="50">
         <f>ROUND(VLOOKUP(L12,Misc!M5:N6,2,FALSE)*EXP(-STDEV(K2:K9)),2)</f>
-        <v>0.45</v>
-      </c>
-      <c r="N4" s="50" t="str">
+        <v>0.46</v>
+      </c>
+      <c r="N4" s="50">
         <f>IFERROR(34/(SIN(ATAN(AVERAGE(Engineering!B45:C48)/68))),"Inf")</f>
-        <v>Inf</v>
+        <v>30826.685416661</v>
       </c>
       <c r="O4" s="50">
         <f>ROUND(IFERROR(1-EXP(-N4/10^3.5),1)*IF(MAX(Engineering!B45:C48)&gt;2.5,0,1)*VLOOKUP(Engineering!C49,Misc!M5:N6,2,FALSE),2)</f>
         <v>1</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="56">
         <f>VLOOKUP(Art!$B$18,Misc!Q3:R6,2,FALSE)*'Score Weight'!L20</f>
@@ -13735,7 +13835,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V4" s="33">
         <f>2*V3</f>
@@ -13760,25 +13860,25 @@
       </c>
       <c r="B5" s="33">
         <f>Basic!B14-100</f>
-        <v>0</v>
+        <v>-0.409999999999997</v>
       </c>
       <c r="C5" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.409999999999997</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="31">
         <v>4</v>
       </c>
       <c r="F5" s="34">
         <f>Basic!B29-10</f>
-        <v>-0.0800000000000001</v>
+        <v>-0.140000000000001</v>
       </c>
       <c r="G5" s="34">
         <f>Basic!B41-100</f>
-        <v>0</v>
+        <v>0.299999999999997</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="50">
@@ -13786,22 +13886,22 @@
       </c>
       <c r="J5" s="53">
         <f>Engineering!B14-10</f>
-        <v>-0.0299999999999994</v>
+        <v>0.0299999999999994</v>
       </c>
       <c r="K5" s="54">
         <f t="shared" si="1"/>
         <v>0.0299999999999994</v>
       </c>
       <c r="L5" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="50" t="s">
         <v>178</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>179</v>
       </c>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
       <c r="P5" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="56">
         <f>VLOOKUP(Art!$B$25,Misc!A2:B4,2,FALSE)*'Score Weight'!L21</f>
@@ -13811,7 +13911,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V5" s="60">
         <f>(V4-V3)/90</f>
@@ -13836,22 +13936,22 @@
       </c>
       <c r="B6" s="33">
         <f>Basic!B15-100</f>
-        <v>0</v>
+        <v>-0.390000000000001</v>
       </c>
       <c r="C6" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.390000000000001</v>
       </c>
       <c r="D6" s="30" t="str">
         <f>LOOKUP(C2:C9,Misc!B11:B21,Misc!A11:A21)</f>
-        <v>Perfect</v>
+        <v>IT12</v>
       </c>
       <c r="E6" s="31">
         <v>5</v>
       </c>
       <c r="F6" s="34">
         <f>Basic!B30-10</f>
-        <v>-0.0500000000000007</v>
+        <v>-0.109999999999999</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="32"/>
@@ -13860,11 +13960,11 @@
       </c>
       <c r="J6" s="53">
         <f>Engineering!B15-10</f>
-        <v>-0.220000000000001</v>
+        <v>-0.130000000000001</v>
       </c>
       <c r="K6" s="54">
         <f t="shared" si="1"/>
-        <v>0.220000000000001</v>
+        <v>0.130000000000001</v>
       </c>
       <c r="L6" s="50" t="str">
         <f>IF(ABS(AVERAGE(Engineering!B11:B13)-AVERAGE(Engineering!B15:B17))&gt;0.2,"Yes","No")</f>
@@ -13877,7 +13977,7 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="56">
         <f>ROUND(Art!$B$27/12*'Score Weight'!L22,2)</f>
@@ -13887,7 +13987,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V6" s="33">
         <f>Engineering!D12*60+Engineering!E12</f>
@@ -13912,21 +14012,21 @@
       </c>
       <c r="B7" s="33">
         <f>Basic!B16-100</f>
-        <v>0</v>
+        <v>-0.530000000000001</v>
       </c>
       <c r="C7" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.530000000000001</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="31">
         <v>6</v>
       </c>
       <c r="F7" s="34">
         <f>Basic!B31-10</f>
-        <v>-0.0500000000000007</v>
+        <v>-0.130000000000001</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="32"/>
@@ -13935,40 +14035,40 @@
       </c>
       <c r="J7" s="53">
         <f>Engineering!B16-10</f>
-        <v>-0.00999999999999979</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="K7" s="54">
         <f t="shared" si="1"/>
-        <v>0.00999999999999979</v>
+        <v>0.0199999999999996</v>
       </c>
       <c r="L7" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="50" t="s">
         <v>185</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>186</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
       <c r="P7" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="56">
         <f>VLOOKUP(Art!$B$29,Misc!E3:F6,2,FALSE)*'Score Weight'!L23</f>
         <v>3</v>
       </c>
       <c r="R7" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S7" s="62">
         <f>T7/18</f>
-        <v>0.955555555555555</v>
+        <v>0.681111111111111</v>
       </c>
       <c r="T7" s="31">
         <f>ROUND(SUM(Process!D2*4+Process!D4*6+Process!H2*4+Process!H11*4),2)</f>
-        <v>17.2</v>
+        <v>12.26</v>
       </c>
       <c r="U7" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V7" s="58">
         <f>((V3-V6)/V5+90)/100</f>
@@ -13993,22 +14093,22 @@
       </c>
       <c r="B8" s="33">
         <f>Basic!B17-100</f>
-        <v>0</v>
+        <v>-0.579999999999998</v>
       </c>
       <c r="C8" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.579999999999998</v>
       </c>
       <c r="D8" s="30">
         <f>SUM(Basic!B11,Basic!B13,Basic!B15,Basic!B17)/4</f>
-        <v>100</v>
+        <v>99.565</v>
       </c>
       <c r="E8" s="31">
         <v>7</v>
       </c>
       <c r="F8" s="34">
         <f>Basic!B32-10</f>
-        <v>-0.0399999999999991</v>
+        <v>-0.0700000000000003</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="32"/>
@@ -14017,11 +14117,11 @@
       </c>
       <c r="J8" s="53">
         <f>Engineering!B17-10</f>
-        <v>-0.24</v>
+        <v>-0.199999999999999</v>
       </c>
       <c r="K8" s="54">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.199999999999999</v>
       </c>
       <c r="L8" s="50" t="str">
         <f>IF(ABS(AVERAGE(Engineering!B13:B15)-AVERAGE(Engineering!B17:B18,Engineering!B11))&gt;0.2,"Yes","No")</f>
@@ -14034,25 +14134,25 @@
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="56">
         <f>VLOOKUP(Art!$B$31,Misc!K5:L6,2,FALSE)*'Score Weight'!L24</f>
         <v>1</v>
       </c>
       <c r="R8" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S8" s="62">
         <f>T8/25</f>
-        <v>0.598</v>
+        <v>0.602</v>
       </c>
       <c r="T8" s="31">
         <f>(Process!C43+Process!D43)*5+Process!M12*10+Process!L14*5</f>
-        <v>14.95</v>
+        <v>15.05</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V8" s="33">
         <f>IF(V7&lt;0,0,IF(V7&gt;1,1,V7))</f>
@@ -14077,21 +14177,21 @@
       </c>
       <c r="B9" s="33">
         <f>Basic!B18-100</f>
-        <v>0</v>
+        <v>-0.459999999999994</v>
       </c>
       <c r="C9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.459999999999994</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="31">
         <v>8</v>
       </c>
       <c r="F9" s="34">
         <f>Basic!B33-10</f>
-        <v>0</v>
+        <v>-0.0700000000000003</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="32"/>
@@ -14100,29 +14200,29 @@
       </c>
       <c r="J9" s="53">
         <f>Engineering!B18-10</f>
-        <v>0.0299999999999994</v>
+        <v>-0.0899999999999999</v>
       </c>
       <c r="K9" s="54">
         <f t="shared" si="1"/>
-        <v>0.0299999999999994</v>
+        <v>0.0899999999999999</v>
       </c>
       <c r="L9" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>191</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>192</v>
       </c>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="56">
         <f>VLOOKUP(Art!$B$33,Misc!I3:J6,2,FALSE)*'Score Weight'!L25</f>
         <v>2.8</v>
       </c>
       <c r="R9" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S9" s="62">
         <f>T9/25</f>
@@ -14133,7 +14233,7 @@
         <v>20.56</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V9" s="33">
         <f>ROUND(V8*'Score Weight'!L26,3)</f>
@@ -14155,30 +14255,30 @@
     <row r="10" ht="15.6" spans="1:20">
       <c r="A10" s="29"/>
       <c r="B10" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="D10" s="3" t="str">
         <f>IF(ABS(AVERAGE(B16,B12)-AVERAGE(B14,B18))&gt;0.2,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="H10" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K10" s="54"/>
       <c r="L10" s="50" t="str">
@@ -14191,7 +14291,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S10" s="62">
         <f>SUM(V9:Y9)/32</f>
@@ -14208,41 +14308,41 @@
       </c>
       <c r="B11" s="33">
         <f>Basic!B11-$D$8</f>
-        <v>0</v>
+        <v>0.144999999999996</v>
       </c>
       <c r="C11" s="33">
         <f>ABS(B11)</f>
-        <v>0</v>
+        <v>0.144999999999996</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="31">
         <v>1</v>
       </c>
       <c r="F11" s="34">
         <f>ABS(F2)</f>
-        <v>0.0199999999999996</v>
+        <v>0.0899999999999999</v>
       </c>
       <c r="G11" s="34">
         <f>ABS(G2)</f>
-        <v>0</v>
+        <v>0.219999999999999</v>
       </c>
       <c r="H11" s="30">
         <f>LOOKUP(MAX(G11:G14),Misc!B11:B21,Misc!G11:G21)</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="53">
         <f>MAX(Engineering!B22:B27)-MIN(Engineering!B22:B27)</f>
-        <v>0.110000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="K11" s="54"/>
       <c r="L11" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="M11" s="50" t="s">
         <v>202</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>203</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -14258,11 +14358,11 @@
       </c>
       <c r="B12" s="33">
         <f>Basic!B12-$D$8</f>
-        <v>0</v>
+        <v>-0.0549999999999926</v>
       </c>
       <c r="C12" s="33">
         <f t="shared" ref="C12:C18" si="2">ABS(B12)</f>
-        <v>0</v>
+        <v>0.0549999999999926</v>
       </c>
       <c r="D12" s="3" t="str">
         <f>IF(D10="Yes","Your axis might be misaligned","All good")</f>
@@ -14273,14 +14373,14 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" ref="F12:F18" si="3">ABS(F3)</f>
-        <v>0.0199999999999996</v>
+        <v>0.0999999999999996</v>
       </c>
       <c r="G12" s="34">
         <f>ABS(G3)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -14291,14 +14391,14 @@
       </c>
       <c r="M12" s="50">
         <f>ROUND(M2*M4*(O2+O4)/2,2)</f>
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S12" s="55">
         <f>V8</f>
@@ -14312,11 +14412,11 @@
       </c>
       <c r="B13" s="33">
         <f>Basic!B13-$D$8</f>
-        <v>0</v>
+        <v>-0.0450000000000017</v>
       </c>
       <c r="C13" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0450000000000017</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="31">
@@ -14324,21 +14424,21 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="3"/>
-        <v>0.0700000000000003</v>
+        <v>0.140000000000001</v>
       </c>
       <c r="G13" s="34">
         <f>ABS(G4)</f>
-        <v>0</v>
+        <v>0.290000000000006</v>
       </c>
       <c r="H13" s="30" t="str">
         <f>LOOKUP(MAX(G11:G14),Misc!B11:B21,Misc!A11:A21)</f>
-        <v>Perfect</v>
+        <v>IT11</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M13" s="50"/>
       <c r="N13" s="18"/>
@@ -14346,7 +14446,7 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S13" s="55">
         <f>W8</f>
@@ -14360,11 +14460,11 @@
       </c>
       <c r="B14" s="33">
         <f>Basic!B14-$D$8</f>
-        <v>0</v>
+        <v>0.0250000000000057</v>
       </c>
       <c r="C14" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0250000000000057</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="31">
@@ -14372,11 +14472,11 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="3"/>
-        <v>0.0800000000000001</v>
+        <v>0.140000000000001</v>
       </c>
       <c r="G14" s="34">
         <f>ABS(G5)</f>
-        <v>0</v>
+        <v>0.299999999999997</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -14406,11 +14506,11 @@
       </c>
       <c r="B15" s="33">
         <f>Basic!B15-$D$8</f>
-        <v>0</v>
+        <v>0.0450000000000017</v>
       </c>
       <c r="C15" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0450000000000017</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="31">
@@ -14418,7 +14518,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="3"/>
-        <v>0.0500000000000007</v>
+        <v>0.109999999999999</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="18"/>
@@ -14426,7 +14526,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M15" s="50"/>
       <c r="N15" s="18"/>
@@ -14448,11 +14548,11 @@
       </c>
       <c r="B16" s="33">
         <f>Basic!B16-$D$8</f>
-        <v>0</v>
+        <v>-0.0949999999999989</v>
       </c>
       <c r="C16" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0949999999999989</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="31">
@@ -14460,7 +14560,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="3"/>
-        <v>0.0500000000000007</v>
+        <v>0.130000000000001</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="18"/>
@@ -14486,11 +14586,11 @@
       </c>
       <c r="B17" s="33">
         <f>Basic!B17-$D$8</f>
-        <v>0</v>
+        <v>-0.144999999999996</v>
       </c>
       <c r="C17" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.144999999999996</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="31">
@@ -14498,7 +14598,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="3"/>
-        <v>0.0399999999999991</v>
+        <v>0.0700000000000003</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="18"/>
@@ -14521,11 +14621,11 @@
       </c>
       <c r="B18" s="33">
         <f>Basic!B18-$D$8</f>
-        <v>0</v>
+        <v>-0.0249999999999915</v>
       </c>
       <c r="C18" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0249999999999915</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="31">
@@ -14533,7 +14633,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.0700000000000003</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="18"/>
@@ -14576,48 +14676,48 @@
     </row>
     <row r="20" ht="15.6" spans="1:20">
       <c r="A20" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="D20" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="E20" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="37" t="s">
+      <c r="G20" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="H20" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="H20" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="37" t="s">
+      <c r="K20" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="37" t="s">
-        <v>213</v>
-      </c>
       <c r="L20" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N20" s="37"/>
       <c r="O20" s="55">
         <f>Process!$M$4</f>
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
@@ -14672,12 +14772,12 @@
         <v>-0.129999999999999</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N21" s="37"/>
       <c r="O21" s="55">
         <f>Process!$M$2</f>
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
@@ -14694,10 +14794,10 @@
         <v>0.0500000000000114</v>
       </c>
       <c r="C22" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>214</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>215</v>
       </c>
       <c r="E22" s="37">
         <v>2</v>
@@ -14707,10 +14807,10 @@
         <v>0.0100000000000051</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I22" s="37">
         <v>2</v>
@@ -14720,13 +14820,13 @@
         <v>0.0799999999999983</v>
       </c>
       <c r="K22" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="L22" s="37" t="s">
-        <v>218</v>
-      </c>
       <c r="M22" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N22" s="37"/>
       <c r="O22" s="55">
@@ -14786,7 +14886,7 @@
         <v>0.129999999999999</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N23" s="37"/>
       <c r="O23" s="55">
@@ -14808,10 +14908,10 @@
         <v>0.0900000000000034</v>
       </c>
       <c r="C24" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>220</v>
       </c>
       <c r="E24" s="37">
         <v>4</v>
@@ -14821,10 +14921,10 @@
         <v>0.0799999999999983</v>
       </c>
       <c r="G24" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="38" t="s">
         <v>221</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>222</v>
       </c>
       <c r="I24" s="37">
         <v>4</v>
@@ -14834,13 +14934,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N24" s="37"/>
       <c r="O24" s="55">
@@ -14900,7 +15000,7 @@
         <v>0.4</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N25" s="37"/>
       <c r="O25" s="55">
@@ -14922,7 +15022,7 @@
         <v>0.0600000000000023</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="44" t="str">
         <f>LOOKUP(D23,Misc!F11:F21,Misc!A11:A21)</f>
@@ -14936,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H26" s="47" t="str">
         <f>LOOKUP(H23,Misc!B11:B21,Misc!A11:A21)</f>
@@ -14950,7 +15050,7 @@
         <v>0.0999999999999979</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L26" s="44" t="str">
         <f>LOOKUP(L23,Misc!D11:D21,Misc!A11:A21)</f>
@@ -14967,26 +15067,26 @@
     </row>
     <row r="27" ht="15.6" spans="1:20">
       <c r="A27" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
@@ -15223,16 +15323,16 @@
     </row>
     <row r="34" ht="15.6" spans="1:20">
       <c r="A34" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>227</v>
-      </c>
       <c r="D34" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
@@ -15293,10 +15393,10 @@
         <v>0.0700000000000003</v>
       </c>
       <c r="C36" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>228</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>229</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
@@ -15357,10 +15457,10 @@
         <v>0.0599999999999952</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
@@ -15421,7 +15521,7 @@
         <v>0.029999999999994</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="44" t="str">
         <f>LOOKUP(D37,Misc!E11:E21,Misc!A11:A21)</f>
@@ -15446,10 +15546,10 @@
     </row>
     <row r="41" ht="15.6" spans="1:20">
       <c r="A41" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -15479,10 +15579,10 @@
         <v>0.0200000000000031</v>
       </c>
       <c r="C42" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="38" t="s">
         <v>128</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>129</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
@@ -15700,39 +15800,39 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:18">
       <c r="A1" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R1" s="27"/>
     </row>
@@ -15744,28 +15844,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>108</v>
@@ -15780,21 +15880,21 @@
         <v>0.5</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:18">
       <c r="A3" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="5">
         <v>0.3</v>
@@ -15806,19 +15906,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
@@ -15842,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R3" s="10">
         <v>1</v>
@@ -15862,29 +15962,29 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="10">
         <v>0.6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H4" s="8">
         <v>0.7</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="8">
         <v>0.7</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5">
@@ -15917,13 +16017,13 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H5" s="8">
         <v>0.5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J5" s="8">
         <v>0.5</v>
@@ -15947,7 +16047,7 @@
         <v>0.5</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R5" s="10">
         <v>0.5</v>
@@ -15970,13 +16070,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -16061,7 +16161,7 @@
     </row>
     <row r="9" ht="15.6" spans="1:20">
       <c r="A9" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -16070,7 +16170,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -16082,40 +16182,40 @@
     </row>
     <row r="10" ht="15.6" spans="1:20">
       <c r="A10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>256</v>
-      </c>
       <c r="G10" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="R10" s="18"/>
       <c r="S10" s="28"/>
@@ -16123,7 +16223,7 @@
     </row>
     <row r="11" ht="15.6" spans="1:20">
       <c r="A11" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="16">
         <v>0</v>
@@ -16144,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I11" s="5">
         <v>362</v>
@@ -16164,7 +16264,7 @@
     </row>
     <row r="12" ht="15.6" spans="1:20">
       <c r="A12" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="16">
         <v>0.054</v>
@@ -16190,7 +16290,7 @@
     </row>
     <row r="13" ht="15.6" spans="1:20">
       <c r="A13" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="16">
         <v>0.087</v>
@@ -16216,7 +16316,7 @@
     </row>
     <row r="14" ht="15.6" spans="1:20">
       <c r="A14" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="16">
         <v>0.14</v>
@@ -16242,7 +16342,7 @@
     </row>
     <row r="15" ht="15.6" spans="1:20">
       <c r="A15" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="16">
         <v>0.22</v>
@@ -16268,7 +16368,7 @@
     </row>
     <row r="16" ht="15.6" spans="1:20">
       <c r="A16" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="16">
         <v>0.35</v>
@@ -16294,7 +16394,7 @@
     </row>
     <row r="17" ht="15.6" spans="1:20">
       <c r="A17" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="16">
         <v>0.54</v>
@@ -16320,7 +16420,7 @@
     </row>
     <row r="18" ht="15.6" spans="1:20">
       <c r="A18" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" s="16">
         <v>0.87</v>
@@ -16346,7 +16446,7 @@
     </row>
     <row r="19" ht="15.6" spans="1:20">
       <c r="A19" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="16">
         <v>1.4</v>
@@ -16372,7 +16472,7 @@
     </row>
     <row r="20" ht="15.6" spans="1:18">
       <c r="A20" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="16">
         <v>2.2</v>
@@ -16396,7 +16496,7 @@
     </row>
     <row r="21" ht="15.6" spans="1:18">
       <c r="A21" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B21" s="16">
         <v>3</v>
@@ -16430,7 +16530,7 @@
     </row>
     <row r="22" ht="15.6" spans="1:19">
       <c r="A22" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -16438,18 +16538,18 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -16459,13 +16559,13 @@
     </row>
     <row r="23" ht="15.6" spans="1:19">
       <c r="A23" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B23" s="20">
         <v>0.86</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D23" s="20">
         <v>0.72</v>
@@ -16476,45 +16576,45 @@
         <v>79</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="M23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="Q23" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="R23" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="R23" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="S23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:19">
       <c r="A24" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" s="20">
         <v>0.8</v>
@@ -16524,13 +16624,13 @@
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H24" s="22">
         <v>1</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J24" s="24">
         <v>0</v>
@@ -16545,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O24" s="24">
         <v>0</v>
@@ -16565,7 +16665,7 @@
     </row>
     <row r="25" ht="15.6" spans="1:19">
       <c r="A25" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="20">
         <v>0.81</v>
@@ -16575,7 +16675,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H25" s="22">
         <v>0.8</v>
@@ -16820,7 +16920,7 @@
         <v>0.3</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O31" s="8">
         <v>1</v>
@@ -16863,7 +16963,7 @@
     </row>
     <row r="33" ht="15.6" spans="9:19">
       <c r="I33" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J33" s="24">
         <v>1</v>
@@ -16914,15 +17014,15 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16992,7 +17092,7 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -17011,7 +17111,7 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -17030,14 +17130,14 @@
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -17045,24 +17145,24 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -17086,7 +17186,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -17107,7 +17207,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -17128,7 +17228,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -17175,7 +17275,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -17390,7 +17490,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -17411,7 +17511,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -17432,7 +17532,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -17448,14 +17548,14 @@
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:15">
       <c r="A26" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -17479,7 +17579,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -17537,7 +17637,7 @@
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:15">
       <c r="A30" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
